--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Thbs2-Cd47.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Thbs2-Cd47.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.9785166666666667</v>
+        <v>1.249563</v>
       </c>
       <c r="H2">
-        <v>2.93555</v>
+        <v>3.748689</v>
       </c>
       <c r="I2">
-        <v>0.005150408549089734</v>
+        <v>0.006879661005457268</v>
       </c>
       <c r="J2">
-        <v>0.005259892016175552</v>
+        <v>0.006920555383629864</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>44.35530666666667</v>
+        <v>46.17354133333333</v>
       </c>
       <c r="N2">
-        <v>133.06592</v>
+        <v>138.520624</v>
       </c>
       <c r="O2">
-        <v>0.1357695438667374</v>
+        <v>0.1154336358852217</v>
       </c>
       <c r="P2">
-        <v>0.1403037013810099</v>
+        <v>0.1189208138601986</v>
       </c>
       <c r="Q2">
-        <v>43.40240682844445</v>
+        <v>57.696748829104</v>
       </c>
       <c r="R2">
-        <v>390.621661456</v>
+        <v>519.2707394619359</v>
       </c>
       <c r="S2">
-        <v>0.0006992686194372578</v>
+        <v>0.0007941442835177128</v>
       </c>
       <c r="T2">
-        <v>0.0007379823187338528</v>
+        <v>0.0008229980785858424</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.9785166666666667</v>
+        <v>1.249563</v>
       </c>
       <c r="H3">
-        <v>2.93555</v>
+        <v>3.748689</v>
       </c>
       <c r="I3">
-        <v>0.005150408549089734</v>
+        <v>0.006879661005457268</v>
       </c>
       <c r="J3">
-        <v>0.005259892016175552</v>
+        <v>0.006920555383629864</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>252.039825</v>
       </c>
       <c r="O3">
-        <v>0.2571607521783362</v>
+        <v>0.2100327918507284</v>
       </c>
       <c r="P3">
-        <v>0.2657488885427764</v>
+        <v>0.2163777511873036</v>
       </c>
       <c r="Q3">
-        <v>82.20838980875001</v>
+        <v>104.979879948825</v>
       </c>
       <c r="R3">
-        <v>739.8755082787501</v>
+        <v>944.818919539425</v>
       </c>
       <c r="S3">
-        <v>0.001324482936509649</v>
+        <v>0.001444954407962779</v>
       </c>
       <c r="T3">
-        <v>0.001397810457153676</v>
+        <v>0.001497454210877017</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.9785166666666667</v>
+        <v>1.249563</v>
       </c>
       <c r="H4">
-        <v>2.93555</v>
+        <v>3.748689</v>
       </c>
       <c r="I4">
-        <v>0.005150408549089734</v>
+        <v>0.006879661005457268</v>
       </c>
       <c r="J4">
-        <v>0.005259892016175552</v>
+        <v>0.006920555383629864</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>95.31862966666665</v>
+        <v>128.0910926666667</v>
       </c>
       <c r="N4">
-        <v>285.955889</v>
+        <v>384.273278</v>
       </c>
       <c r="O4">
-        <v>0.291765920346377</v>
+        <v>0.3202271284388135</v>
       </c>
       <c r="P4">
-        <v>0.3015097303531754</v>
+        <v>0.3299009897940278</v>
       </c>
       <c r="Q4">
-        <v>93.27086777266111</v>
+        <v>160.057890025838</v>
       </c>
       <c r="R4">
-        <v>839.4378099539499</v>
+        <v>1440.521010232542</v>
       </c>
       <c r="S4">
-        <v>0.001502713690485015</v>
+        <v>0.002203054088410061</v>
       </c>
       <c r="T4">
-        <v>0.001585908623483911</v>
+        <v>0.00228309807098388</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.9785166666666667</v>
+        <v>1.249563</v>
       </c>
       <c r="H5">
-        <v>2.93555</v>
+        <v>3.748689</v>
       </c>
       <c r="I5">
-        <v>0.005150408549089734</v>
+        <v>0.006879661005457268</v>
       </c>
       <c r="J5">
-        <v>0.005259892016175552</v>
+        <v>0.006920555383629864</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>31.673201</v>
+        <v>35.18830149999999</v>
       </c>
       <c r="N5">
-        <v>63.346402</v>
+        <v>70.37660299999999</v>
       </c>
       <c r="O5">
-        <v>0.09695020451298475</v>
+        <v>0.08797058803540478</v>
       </c>
       <c r="P5">
-        <v>0.0667919679942799</v>
+        <v>0.06041874966919073</v>
       </c>
       <c r="Q5">
-        <v>30.99275506518334</v>
+        <v>43.96999958724449</v>
       </c>
       <c r="R5">
-        <v>185.9565303911</v>
+        <v>263.819997523467</v>
       </c>
       <c r="S5">
-        <v>0.0004993331621596748</v>
+        <v>0.0006052078241343199</v>
       </c>
       <c r="T5">
-        <v>0.0003513185391977658</v>
+        <v>0.000418131303295303</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.9785166666666667</v>
+        <v>1.249563</v>
       </c>
       <c r="H6">
-        <v>2.93555</v>
+        <v>3.748689</v>
       </c>
       <c r="I6">
-        <v>0.005150408549089734</v>
+        <v>0.006879661005457268</v>
       </c>
       <c r="J6">
-        <v>0.005259892016175552</v>
+        <v>0.006920555383629864</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>71.335144</v>
+        <v>106.534543</v>
       </c>
       <c r="N6">
-        <v>214.005432</v>
+        <v>319.603629</v>
       </c>
       <c r="O6">
-        <v>0.2183535790955647</v>
+        <v>0.2663358557898317</v>
       </c>
       <c r="P6">
-        <v>0.2256457117287584</v>
+        <v>0.2743816954892795</v>
       </c>
       <c r="Q6">
-        <v>69.80262732306667</v>
+        <v>133.121623154709</v>
       </c>
       <c r="R6">
-        <v>628.2236459076</v>
+        <v>1198.094608392381</v>
       </c>
       <c r="S6">
-        <v>0.001124610140498138</v>
+        <v>0.001832300401432395</v>
       </c>
       <c r="T6">
-        <v>0.001186872077606346</v>
+        <v>0.001898873719887823</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,13 +853,13 @@
         <v>177.042969</v>
       </c>
       <c r="H7">
-        <v>531.1289069999999</v>
+        <v>531.128907</v>
       </c>
       <c r="I7">
-        <v>0.9318631477172884</v>
+        <v>0.9747372562405255</v>
       </c>
       <c r="J7">
-        <v>0.9516719856549357</v>
+        <v>0.9805313315509224</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>44.35530666666667</v>
+        <v>46.17354133333333</v>
       </c>
       <c r="N7">
-        <v>133.06592</v>
+        <v>138.520624</v>
       </c>
       <c r="O7">
-        <v>0.1357695438667374</v>
+        <v>0.1154336358852217</v>
       </c>
       <c r="P7">
-        <v>0.1403037013810099</v>
+        <v>0.1189208138601986</v>
       </c>
       <c r="Q7">
-        <v>7852.795183172159</v>
+        <v>8174.700846897552</v>
       </c>
       <c r="R7">
-        <v>70675.15664854943</v>
+        <v>73572.30762207798</v>
       </c>
       <c r="S7">
-        <v>0.1265186345117983</v>
+        <v>0.1125174655206289</v>
       </c>
       <c r="T7">
-        <v>0.1335231020880029</v>
+        <v>0.1166055839634599</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,13 +915,13 @@
         <v>177.042969</v>
       </c>
       <c r="H8">
-        <v>531.1289069999999</v>
+        <v>531.128907</v>
       </c>
       <c r="I8">
-        <v>0.9318631477172884</v>
+        <v>0.9747372562405255</v>
       </c>
       <c r="J8">
-        <v>0.9516719856549357</v>
+        <v>0.9805313315509224</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>252.039825</v>
       </c>
       <c r="O8">
-        <v>0.2571607521783362</v>
+        <v>0.2100327918507284</v>
       </c>
       <c r="P8">
-        <v>0.2657488885427764</v>
+        <v>0.2163777511873036</v>
       </c>
       <c r="Q8">
-        <v>14873.95964141347</v>
+        <v>14873.95964141348</v>
       </c>
       <c r="R8">
-        <v>133865.6367727212</v>
+        <v>133865.6367727213</v>
       </c>
       <c r="S8">
-        <v>0.2396386279942499</v>
+        <v>0.2047267872491164</v>
       </c>
       <c r="T8">
-        <v>0.2529057724450962</v>
+        <v>0.212165164489681</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,13 +977,13 @@
         <v>177.042969</v>
       </c>
       <c r="H9">
-        <v>531.1289069999999</v>
+        <v>531.128907</v>
       </c>
       <c r="I9">
-        <v>0.9318631477172884</v>
+        <v>0.9747372562405255</v>
       </c>
       <c r="J9">
-        <v>0.9516719856549357</v>
+        <v>0.9805313315509224</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>95.31862966666665</v>
+        <v>128.0910926666667</v>
       </c>
       <c r="N9">
-        <v>285.955889</v>
+        <v>384.273278</v>
       </c>
       <c r="O9">
-        <v>0.291765920346377</v>
+        <v>0.3202271284388135</v>
       </c>
       <c r="P9">
-        <v>0.3015097303531754</v>
+        <v>0.3299009897940278</v>
       </c>
       <c r="Q9">
-        <v>16875.49319719814</v>
+        <v>22677.62734816079</v>
       </c>
       <c r="R9">
-        <v>151879.4387747833</v>
+        <v>204098.6461334472</v>
       </c>
       <c r="S9">
-        <v>0.2718859089306065</v>
+        <v>0.3121373125482315</v>
       </c>
       <c r="T9">
-        <v>0.2869383637794907</v>
+        <v>0.3234782568027053</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,13 +1039,13 @@
         <v>177.042969</v>
       </c>
       <c r="H10">
-        <v>531.1289069999999</v>
+        <v>531.128907</v>
       </c>
       <c r="I10">
-        <v>0.9318631477172884</v>
+        <v>0.9747372562405255</v>
       </c>
       <c r="J10">
-        <v>0.9516719856549357</v>
+        <v>0.9805313315509224</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>31.673201</v>
+        <v>35.18830149999999</v>
       </c>
       <c r="N10">
-        <v>63.346402</v>
+        <v>70.37660299999999</v>
       </c>
       <c r="O10">
-        <v>0.09695020451298475</v>
+        <v>0.08797058803540478</v>
       </c>
       <c r="P10">
-        <v>0.0667919679942799</v>
+        <v>0.06041874966919073</v>
       </c>
       <c r="Q10">
-        <v>5607.517542773768</v>
+        <v>6229.841371627153</v>
       </c>
       <c r="R10">
-        <v>33645.10525664261</v>
+        <v>37379.04822976291</v>
       </c>
       <c r="S10">
-        <v>0.09034432274930483</v>
+        <v>0.08574820961149605</v>
       </c>
       <c r="T10">
-        <v>0.06356404480691727</v>
+        <v>0.05924247706377344</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,13 +1101,13 @@
         <v>177.042969</v>
       </c>
       <c r="H11">
-        <v>531.1289069999999</v>
+        <v>531.128907</v>
       </c>
       <c r="I11">
-        <v>0.9318631477172884</v>
+        <v>0.9747372562405255</v>
       </c>
       <c r="J11">
-        <v>0.9516719856549357</v>
+        <v>0.9805313315509224</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>71.335144</v>
+        <v>106.534543</v>
       </c>
       <c r="N11">
-        <v>214.005432</v>
+        <v>319.603629</v>
       </c>
       <c r="O11">
-        <v>0.2183535790955647</v>
+        <v>0.2663358557898317</v>
       </c>
       <c r="P11">
-        <v>0.2256457117287584</v>
+        <v>0.2743816954892795</v>
       </c>
       <c r="Q11">
-        <v>12629.38568780253</v>
+        <v>18861.19179377817</v>
       </c>
       <c r="R11">
-        <v>113664.4711902228</v>
+        <v>169750.7261440035</v>
       </c>
       <c r="S11">
-        <v>0.2034756535313288</v>
+        <v>0.2596074813110528</v>
       </c>
       <c r="T11">
-        <v>0.2147407025354287</v>
+        <v>0.2690398492313029</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.06082233333333334</v>
+        <v>0.07049699999999999</v>
       </c>
       <c r="H12">
-        <v>0.182467</v>
+        <v>0.211491</v>
       </c>
       <c r="I12">
-        <v>0.0003201374858976194</v>
+        <v>0.000388132060489724</v>
       </c>
       <c r="J12">
-        <v>0.0003269427250482889</v>
+        <v>0.0003904392118522671</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>44.35530666666667</v>
+        <v>46.17354133333333</v>
       </c>
       <c r="N12">
-        <v>133.06592</v>
+        <v>138.520624</v>
       </c>
       <c r="O12">
-        <v>0.1357695438667374</v>
+        <v>0.1154336358852217</v>
       </c>
       <c r="P12">
-        <v>0.1403037013810099</v>
+        <v>0.1189208138601986</v>
       </c>
       <c r="Q12">
-        <v>2.697793247182223</v>
+        <v>3.255096143376</v>
       </c>
       <c r="R12">
-        <v>24.28013922464</v>
+        <v>29.295865290384</v>
       </c>
       <c r="S12">
-        <v>4.346492043496385E-05</v>
+        <v>4.480349494595165E-05</v>
       </c>
       <c r="T12">
-        <v>4.587127446386876E-05</v>
+        <v>4.643134883640611E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.06082233333333334</v>
+        <v>0.07049699999999999</v>
       </c>
       <c r="H13">
-        <v>0.182467</v>
+        <v>0.211491</v>
       </c>
       <c r="I13">
-        <v>0.0003201374858976194</v>
+        <v>0.000388132060489724</v>
       </c>
       <c r="J13">
-        <v>0.0003269427250482889</v>
+        <v>0.0003904392118522671</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>252.039825</v>
       </c>
       <c r="O13">
-        <v>0.2571607521783362</v>
+        <v>0.2100327918507284</v>
       </c>
       <c r="P13">
-        <v>0.2657488885427764</v>
+        <v>0.2163777511873036</v>
       </c>
       <c r="Q13">
-        <v>5.109883416475001</v>
+        <v>5.922683847675</v>
       </c>
       <c r="R13">
-        <v>45.98895074827501</v>
+        <v>53.304154629075</v>
       </c>
       <c r="S13">
-        <v>8.232679667391329E-05</v>
+        <v>8.15204602714325E-05</v>
       </c>
       <c r="T13">
-        <v>8.688466579872932E-05</v>
+        <v>8.448235863593678E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.06082233333333334</v>
+        <v>0.07049699999999999</v>
       </c>
       <c r="H14">
-        <v>0.182467</v>
+        <v>0.211491</v>
       </c>
       <c r="I14">
-        <v>0.0003201374858976194</v>
+        <v>0.000388132060489724</v>
       </c>
       <c r="J14">
-        <v>0.0003269427250482889</v>
+        <v>0.0003904392118522671</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>95.31862966666665</v>
+        <v>128.0910926666667</v>
       </c>
       <c r="N14">
-        <v>285.955889</v>
+        <v>384.273278</v>
       </c>
       <c r="O14">
-        <v>0.291765920346377</v>
+        <v>0.3202271284388135</v>
       </c>
       <c r="P14">
-        <v>0.3015097303531754</v>
+        <v>0.3299009897940278</v>
       </c>
       <c r="Q14">
-        <v>5.797501466462555</v>
+        <v>9.030037759721999</v>
       </c>
       <c r="R14">
-        <v>52.177513198163</v>
+        <v>81.270339837498</v>
       </c>
       <c r="S14">
-        <v>9.340520821029421E-05</v>
+        <v>0.0001242904151856642</v>
       </c>
       <c r="T14">
-        <v>9.857641287024195E-05</v>
+        <v>0.000128806282444463</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.06082233333333334</v>
+        <v>0.07049699999999999</v>
       </c>
       <c r="H15">
-        <v>0.182467</v>
+        <v>0.211491</v>
       </c>
       <c r="I15">
-        <v>0.0003201374858976194</v>
+        <v>0.000388132060489724</v>
       </c>
       <c r="J15">
-        <v>0.0003269427250482889</v>
+        <v>0.0003904392118522671</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>31.673201</v>
+        <v>35.18830149999999</v>
       </c>
       <c r="N15">
-        <v>63.346402</v>
+        <v>70.37660299999999</v>
       </c>
       <c r="O15">
-        <v>0.09695020451298475</v>
+        <v>0.08797058803540478</v>
       </c>
       <c r="P15">
-        <v>0.0667919679942799</v>
+        <v>0.06041874966919073</v>
       </c>
       <c r="Q15">
-        <v>1.926437988955667</v>
+        <v>2.480669690845499</v>
       </c>
       <c r="R15">
-        <v>11.558627933734</v>
+        <v>14.884018145073</v>
       </c>
       <c r="S15">
-        <v>3.103739473004698E-05</v>
+        <v>3.414420559667432E-05</v>
       </c>
       <c r="T15">
-        <v>2.183714802738797E-05</v>
+        <v>2.358984900193826E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.06082233333333334</v>
+        <v>0.07049699999999999</v>
       </c>
       <c r="H16">
-        <v>0.182467</v>
+        <v>0.211491</v>
       </c>
       <c r="I16">
-        <v>0.0003201374858976194</v>
+        <v>0.000388132060489724</v>
       </c>
       <c r="J16">
-        <v>0.0003269427250482889</v>
+        <v>0.0003904392118522671</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>71.335144</v>
+        <v>106.534543</v>
       </c>
       <c r="N16">
-        <v>214.005432</v>
+        <v>319.603629</v>
       </c>
       <c r="O16">
-        <v>0.2183535790955647</v>
+        <v>0.2663358557898317</v>
       </c>
       <c r="P16">
-        <v>0.2256457117287584</v>
+        <v>0.2743816954892795</v>
       </c>
       <c r="Q16">
-        <v>4.338769906749333</v>
+        <v>7.510365677870999</v>
       </c>
       <c r="R16">
-        <v>39.048929160744</v>
+        <v>67.593291100839</v>
       </c>
       <c r="S16">
-        <v>6.990316584840105E-05</v>
+        <v>0.0001033734844900013</v>
       </c>
       <c r="T16">
-        <v>7.377322388806091E-05</v>
+        <v>0.000107129372933523</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>11.8636825</v>
+        <v>3.2198455</v>
       </c>
       <c r="H17">
-        <v>23.727365</v>
+        <v>6.439691</v>
       </c>
       <c r="I17">
-        <v>0.06244432399892995</v>
+        <v>0.01772735390688349</v>
       </c>
       <c r="J17">
-        <v>0.04251447862526041</v>
+        <v>0.01188848640657115</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>44.35530666666667</v>
+        <v>46.17354133333333</v>
       </c>
       <c r="N17">
-        <v>133.06592</v>
+        <v>138.520624</v>
       </c>
       <c r="O17">
-        <v>0.1357695438667374</v>
+        <v>0.1154336358852217</v>
       </c>
       <c r="P17">
-        <v>0.1403037013810099</v>
+        <v>0.1189208138601986</v>
       </c>
       <c r="Q17">
-        <v>526.2172754834667</v>
+        <v>148.6716692811973</v>
       </c>
       <c r="R17">
-        <v>3157.3036529008</v>
+        <v>892.030015687184</v>
       </c>
       <c r="S17">
-        <v>0.008478037386401481</v>
+        <v>0.002046332916095652</v>
       </c>
       <c r="T17">
-        <v>0.005964938713407866</v>
+        <v>0.001413788479035349</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>11.8636825</v>
+        <v>3.2198455</v>
       </c>
       <c r="H18">
-        <v>23.727365</v>
+        <v>6.439691</v>
       </c>
       <c r="I18">
-        <v>0.06244432399892995</v>
+        <v>0.01772735390688349</v>
       </c>
       <c r="J18">
-        <v>0.04251447862526041</v>
+        <v>0.01188848640657115</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>252.039825</v>
       </c>
       <c r="O18">
-        <v>0.2571607521783362</v>
+        <v>0.2100327918507284</v>
       </c>
       <c r="P18">
-        <v>0.2657488885427764</v>
+        <v>0.2163777511873036</v>
       </c>
       <c r="Q18">
-        <v>996.7068203851876</v>
+        <v>270.5097654490125</v>
       </c>
       <c r="R18">
-        <v>5980.240922311125</v>
+        <v>1623.058592694075</v>
       </c>
       <c r="S18">
-        <v>0.01605822932883256</v>
+        <v>0.003723325633188657</v>
       </c>
       <c r="T18">
-        <v>0.01129817544163858</v>
+        <v>0.002572403953674693</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>11.8636825</v>
+        <v>3.2198455</v>
       </c>
       <c r="H19">
-        <v>23.727365</v>
+        <v>6.439691</v>
       </c>
       <c r="I19">
-        <v>0.06244432399892995</v>
+        <v>0.01772735390688349</v>
       </c>
       <c r="J19">
-        <v>0.04251447862526041</v>
+        <v>0.01188848640657115</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>95.31862966666665</v>
+        <v>128.0910926666667</v>
       </c>
       <c r="N19">
-        <v>285.955889</v>
+        <v>384.273278</v>
       </c>
       <c r="O19">
-        <v>0.291765920346377</v>
+        <v>0.3202271284388135</v>
       </c>
       <c r="P19">
-        <v>0.3015097303531754</v>
+        <v>0.3299009897940278</v>
       </c>
       <c r="Q19">
-        <v>1130.829958700414</v>
+        <v>412.4335283128497</v>
       </c>
       <c r="R19">
-        <v>6784.979752202484</v>
+        <v>2474.601169877098</v>
       </c>
       <c r="S19">
-        <v>0.01821912566195515</v>
+        <v>0.005676779636419883</v>
       </c>
       <c r="T19">
-        <v>0.01281852898640811</v>
+        <v>0.003922023432680666</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>11.8636825</v>
+        <v>3.2198455</v>
       </c>
       <c r="H20">
-        <v>23.727365</v>
+        <v>6.439691</v>
       </c>
       <c r="I20">
-        <v>0.06244432399892995</v>
+        <v>0.01772735390688349</v>
       </c>
       <c r="J20">
-        <v>0.04251447862526041</v>
+        <v>0.01188848640657115</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>31.673201</v>
+        <v>35.18830149999999</v>
       </c>
       <c r="N20">
-        <v>63.346402</v>
+        <v>70.37660299999999</v>
       </c>
       <c r="O20">
-        <v>0.09695020451298475</v>
+        <v>0.08797058803540478</v>
       </c>
       <c r="P20">
-        <v>0.0667919679942799</v>
+        <v>0.06041874966919073</v>
       </c>
       <c r="Q20">
-        <v>375.7608004226825</v>
+        <v>113.3008942374182</v>
       </c>
       <c r="R20">
-        <v>1503.04320169073</v>
+        <v>453.2035769496729</v>
       </c>
       <c r="S20">
-        <v>0.006053989982371341</v>
+        <v>0.001559485747500271</v>
       </c>
       <c r="T20">
-        <v>0.002839625695631891</v>
+        <v>0.000718287484144199</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>11.8636825</v>
+        <v>3.2198455</v>
       </c>
       <c r="H21">
-        <v>23.727365</v>
+        <v>6.439691</v>
       </c>
       <c r="I21">
-        <v>0.06244432399892995</v>
+        <v>0.01772735390688349</v>
       </c>
       <c r="J21">
-        <v>0.04251447862526041</v>
+        <v>0.01188848640657115</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>71.335144</v>
+        <v>106.534543</v>
       </c>
       <c r="N21">
-        <v>214.005432</v>
+        <v>319.603629</v>
       </c>
       <c r="O21">
-        <v>0.2183535790955647</v>
+        <v>0.2663358557898317</v>
       </c>
       <c r="P21">
-        <v>0.2256457117287584</v>
+        <v>0.2743816954892795</v>
       </c>
       <c r="Q21">
-        <v>846.29749950778</v>
+        <v>343.0247688731065</v>
       </c>
       <c r="R21">
-        <v>5077.78499704668</v>
+        <v>2058.148613238639</v>
       </c>
       <c r="S21">
-        <v>0.01363494163936942</v>
+        <v>0.004721429973679031</v>
       </c>
       <c r="T21">
-        <v>0.009593209788173971</v>
+        <v>0.003261983057036243</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,22 +1774,22 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G22">
-        <v>0.042174</v>
+        <v>0.048604</v>
       </c>
       <c r="H22">
-        <v>0.126522</v>
+        <v>0.145812</v>
       </c>
       <c r="I22">
-        <v>0.00022198224879424</v>
+        <v>0.0002675967866440068</v>
       </c>
       <c r="J22">
-        <v>0.000226700978580015</v>
+        <v>0.0002691874470242364</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>44.35530666666667</v>
+        <v>46.17354133333333</v>
       </c>
       <c r="N22">
-        <v>133.06592</v>
+        <v>138.520624</v>
       </c>
       <c r="O22">
-        <v>0.1357695438667374</v>
+        <v>0.1154336358852217</v>
       </c>
       <c r="P22">
-        <v>0.1403037013810099</v>
+        <v>0.1189208138601986</v>
       </c>
       <c r="Q22">
-        <v>1.87064070336</v>
+        <v>2.244218802965333</v>
       </c>
       <c r="R22">
-        <v>16.83576633024</v>
+        <v>20.197969226688</v>
       </c>
       <c r="S22">
-        <v>3.013842866530658E-05</v>
+        <v>3.088967003351964E-05</v>
       </c>
       <c r="T22">
-        <v>3.180698640147316E-05</v>
+        <v>3.201199028107129E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,22 +1836,22 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G23">
-        <v>0.042174</v>
+        <v>0.048604</v>
       </c>
       <c r="H23">
-        <v>0.126522</v>
+        <v>0.145812</v>
       </c>
       <c r="I23">
-        <v>0.00022198224879424</v>
+        <v>0.0002675967866440068</v>
       </c>
       <c r="J23">
-        <v>0.000226700978580015</v>
+        <v>0.0002691874470242364</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>252.039825</v>
       </c>
       <c r="O23">
-        <v>0.2571607521783362</v>
+        <v>0.2100327918507284</v>
       </c>
       <c r="P23">
-        <v>0.2657488885427764</v>
+        <v>0.2163777511873036</v>
       </c>
       <c r="Q23">
-        <v>3.54317585985</v>
+        <v>4.0833812181</v>
       </c>
       <c r="R23">
-        <v>31.88858273865</v>
+        <v>36.7504309629</v>
       </c>
       <c r="S23">
-        <v>5.708512207016532E-05</v>
+        <v>5.620410018912445E-05</v>
       </c>
       <c r="T23">
-        <v>6.024553308919876E-05</v>
+        <v>5.824617443495569E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,22 +1898,22 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G24">
-        <v>0.042174</v>
+        <v>0.048604</v>
       </c>
       <c r="H24">
-        <v>0.126522</v>
+        <v>0.145812</v>
       </c>
       <c r="I24">
-        <v>0.00022198224879424</v>
+        <v>0.0002675967866440068</v>
       </c>
       <c r="J24">
-        <v>0.000226700978580015</v>
+        <v>0.0002691874470242364</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>95.31862966666665</v>
+        <v>128.0910926666667</v>
       </c>
       <c r="N24">
-        <v>285.955889</v>
+        <v>384.273278</v>
       </c>
       <c r="O24">
-        <v>0.291765920346377</v>
+        <v>0.3202271284388135</v>
       </c>
       <c r="P24">
-        <v>0.3015097303531754</v>
+        <v>0.3299009897940278</v>
       </c>
       <c r="Q24">
-        <v>4.019967887561999</v>
+        <v>6.225739467970667</v>
       </c>
       <c r="R24">
-        <v>36.17971098805799</v>
+        <v>56.031655211736</v>
       </c>
       <c r="S24">
-        <v>6.476685512000987E-05</v>
+        <v>8.569175056646413E-05</v>
       </c>
       <c r="T24">
-        <v>6.835255092246134E-05</v>
+        <v>8.880520521342301E-05</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,22 +1960,22 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G25">
-        <v>0.042174</v>
+        <v>0.048604</v>
       </c>
       <c r="H25">
-        <v>0.126522</v>
+        <v>0.145812</v>
       </c>
       <c r="I25">
-        <v>0.00022198224879424</v>
+        <v>0.0002675967866440068</v>
       </c>
       <c r="J25">
-        <v>0.000226700978580015</v>
+        <v>0.0002691874470242364</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>31.673201</v>
+        <v>35.18830149999999</v>
       </c>
       <c r="N25">
-        <v>63.346402</v>
+        <v>70.37660299999999</v>
       </c>
       <c r="O25">
-        <v>0.09695020451298475</v>
+        <v>0.08797058803540478</v>
       </c>
       <c r="P25">
-        <v>0.0667919679942799</v>
+        <v>0.06041874966919073</v>
       </c>
       <c r="Q25">
-        <v>1.335785578974</v>
+        <v>1.710292206106</v>
       </c>
       <c r="R25">
-        <v>8.014713473843999</v>
+        <v>10.261753236636</v>
       </c>
       <c r="S25">
-        <v>2.152122441885383E-05</v>
+        <v>2.354064667745803E-05</v>
       </c>
       <c r="T25">
-        <v>1.51418045055883E-05</v>
+        <v>1.626396897584588E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,22 +2022,22 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>0.042174</v>
+        <v>0.048604</v>
       </c>
       <c r="H26">
-        <v>0.126522</v>
+        <v>0.145812</v>
       </c>
       <c r="I26">
-        <v>0.00022198224879424</v>
+        <v>0.0002675967866440068</v>
       </c>
       <c r="J26">
-        <v>0.000226700978580015</v>
+        <v>0.0002691874470242364</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>71.335144</v>
+        <v>106.534543</v>
       </c>
       <c r="N26">
-        <v>214.005432</v>
+        <v>319.603629</v>
       </c>
       <c r="O26">
-        <v>0.2183535790955647</v>
+        <v>0.2663358557898317</v>
       </c>
       <c r="P26">
-        <v>0.2256457117287584</v>
+        <v>0.2743816954892795</v>
       </c>
       <c r="Q26">
-        <v>3.008488363056</v>
+        <v>5.178004927972</v>
       </c>
       <c r="R26">
-        <v>27.076395267504</v>
+        <v>46.602044351748</v>
       </c>
       <c r="S26">
-        <v>4.84706185199044E-05</v>
+        <v>7.127061917744053E-05</v>
       </c>
       <c r="T26">
-        <v>5.11541036612935E-05</v>
+        <v>7.386010811894059E-05</v>
       </c>
     </row>
   </sheetData>
